--- a/data/raw/Data-ThaiBiomassComposition.xlsx
+++ b/data/raw/Data-ThaiBiomassComposition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Current Work\Biomass Gasification Optimisation\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Current Work\Biomass Gasification Optimisation Project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6CDD0-E2E2-4EBB-91C7-B0F9E3A1D925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7101DA2C-CD78-412B-8977-AA8632D30733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3715,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6948DB0A-3D5B-4EEB-A6EB-3775347826E7}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4324,11 +4324,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J14" xr:uid="{6948DB0A-3D5B-4EEB-A6EB-3775347826E7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-      <sortCondition ref="A1:A14"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J14" xr:uid="{6948DB0A-3D5B-4EEB-A6EB-3775347826E7}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
